--- a/Psychopy Tasks/Activities1_DF.xlsx
+++ b/Psychopy Tasks/Activities1_DF.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\GitHub\WTP_social\Psychopy Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69170865-27CF-4AA9-92B5-1678BEB5DFE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +21,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SHeet3!$F$1:$F$51</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>Left</t>
   </si>
@@ -444,6 +451,42 @@
   <si>
     <t>Getting lunch with 
 co-workers</t>
+  </si>
+  <si>
+    <t>LeftEx</t>
+  </si>
+  <si>
+    <t>RightEx</t>
+  </si>
+  <si>
+    <t>LMoneyEx</t>
+  </si>
+  <si>
+    <t>RMoneyEx</t>
+  </si>
+  <si>
+    <t>Going to a family
+barbeque</t>
+  </si>
+  <si>
+    <t>Going shopping
+by yourself</t>
+  </si>
+  <si>
+    <t>Going for a run
+by yourself</t>
+  </si>
+  <si>
+    <t>Helping a friend
+study for a test</t>
+  </si>
+  <si>
+    <t>Watching television
+at home</t>
+  </si>
+  <si>
+    <t>Having lunch with
+a significant other</t>
   </si>
 </sst>
 </file>
@@ -495,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -516,6 +559,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,16 +882,16 @@
       <selection activeCell="C2" sqref="C2:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="36.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +906,7 @@
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -874,7 +920,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -888,7 +934,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
@@ -902,7 +948,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -916,7 +962,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -930,7 +976,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -946,7 +992,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -962,7 +1008,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -976,7 +1022,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -990,7 +1036,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1050,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1021,7 +1067,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
@@ -1035,7 +1081,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -1049,7 +1095,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>67</v>
       </c>
@@ -1063,7 +1109,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +1123,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1091,7 +1137,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1151,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -1119,7 +1165,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1179,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -1147,7 +1193,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1207,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +1221,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1235,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -1203,7 +1249,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -1217,7 +1263,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>69</v>
       </c>
@@ -1231,7 +1277,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>92</v>
       </c>
@@ -1245,7 +1291,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1305,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -1273,7 +1319,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>48</v>
       </c>
@@ -1287,7 +1333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -1301,7 +1347,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>73</v>
       </c>
@@ -1315,7 +1361,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -1329,7 +1375,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1389,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
@@ -1357,7 +1403,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -1371,7 +1417,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -1385,7 +1431,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -1399,7 +1445,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -1413,7 +1459,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
@@ -1427,7 +1473,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -1441,7 +1487,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>94</v>
       </c>
@@ -1455,7 +1501,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>83</v>
       </c>
@@ -1469,7 +1515,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>96</v>
       </c>
@@ -1483,7 +1529,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>84</v>
       </c>
@@ -1497,7 +1543,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>103</v>
       </c>
@@ -1511,7 +1557,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>95</v>
       </c>
@@ -1525,7 +1571,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
@@ -1539,7 +1585,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>88</v>
       </c>
@@ -1553,7 +1599,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>87</v>
       </c>
@@ -1567,7 +1613,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L52" s="9"/>
     </row>
   </sheetData>
@@ -1584,9 +1630,9 @@
       <selection activeCell="K5" sqref="K5:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>104</v>
       </c>
@@ -1597,7 +1643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E5">
         <v>0.01</v>
       </c>
@@ -1615,7 +1661,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>0.02</v>
       </c>
@@ -1633,7 +1679,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>0.01</v>
       </c>
@@ -1651,7 +1697,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>0.03</v>
       </c>
@@ -1669,7 +1715,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>0.02</v>
       </c>
@@ -1687,7 +1733,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>0.01</v>
       </c>
@@ -1705,7 +1751,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>0.03</v>
       </c>
@@ -1723,7 +1769,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>0.04</v>
       </c>
@@ -1741,7 +1787,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>0.01</v>
       </c>
@@ -1759,7 +1805,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>0.02</v>
       </c>
@@ -1777,7 +1823,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>0.04</v>
       </c>
@@ -1795,7 +1841,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>0.02</v>
       </c>
@@ -1813,7 +1859,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E17">
         <v>0.05</v>
       </c>
@@ -1831,7 +1877,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E18">
         <v>0.03</v>
       </c>
@@ -1849,7 +1895,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E19">
         <v>0.01</v>
       </c>
@@ -1867,7 +1913,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E20">
         <v>0.03</v>
       </c>
@@ -1885,7 +1931,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E21">
         <v>0.02</v>
       </c>
@@ -1903,7 +1949,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E22">
         <v>0.05</v>
       </c>
@@ -1921,7 +1967,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E23">
         <v>0.04</v>
       </c>
@@ -1939,7 +1985,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>0.03</v>
       </c>
@@ -1957,7 +2003,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>0.04</v>
       </c>
@@ -1969,7 +2015,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>0.05</v>
       </c>
@@ -1981,7 +2027,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>0.04</v>
       </c>
@@ -1993,7 +2039,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>0.05</v>
       </c>
@@ -2005,7 +2051,7 @@
         <v>3.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>0.05</v>
       </c>
@@ -2018,7 +2064,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="E5:G29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:G29">
     <sortCondition ref="G5:G29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2029,20 +2075,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="36.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,9 +2104,21 @@
       <c r="F1" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="G1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2077,8 +2135,20 @@
         <f t="shared" ref="F2:F33" si="0">C2-D2</f>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -2095,12 +2165,21 @@
         <f t="shared" si="0"/>
         <v>3.0000000000000002E-2</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="G3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+      <c r="J3">
+        <v>0.04</v>
+      </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>71</v>
       </c>
@@ -2117,12 +2196,21 @@
         <f t="shared" si="0"/>
         <v>-3.0000000000000002E-2</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="G4" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4">
+        <v>0.05</v>
+      </c>
+      <c r="J4">
+        <v>0.05</v>
+      </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2144,7 +2232,7 @@
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -2166,7 +2254,7 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:13" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -2188,7 +2276,7 @@
       <c r="J7"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -2210,7 +2298,7 @@
       <c r="J8"/>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -2232,7 +2320,7 @@
       <c r="J9"/>
       <c r="K9"/>
     </row>
-    <row r="10" spans="1:13" ht="28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2254,7 +2342,7 @@
       <c r="J10"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2276,7 +2364,7 @@
       <c r="J11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -2298,7 +2386,7 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
@@ -2316,7 +2404,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
@@ -2334,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>67</v>
       </c>
@@ -2352,7 +2440,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2370,7 +2458,7 @@
         <v>3.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -2388,7 +2476,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -2406,7 +2494,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -2424,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -2442,7 +2530,7 @@
         <v>1.9999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
@@ -2460,7 +2548,7 @@
         <v>-1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -2478,7 +2566,7 @@
         <v>-1.9999999999999997E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2584,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -2514,7 +2602,7 @@
         <v>-9.9999999999999985E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -2532,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -2550,7 +2638,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>69</v>
       </c>
@@ -2568,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>92</v>
       </c>
@@ -2586,7 +2674,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>11</v>
       </c>
@@ -2604,7 +2692,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>47</v>
       </c>
@@ -2622,7 +2710,7 @@
         <v>3.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>48</v>
       </c>
@@ -2640,7 +2728,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -2658,7 +2746,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>73</v>
       </c>
@@ -2676,7 +2764,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
@@ -2694,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>13</v>
       </c>
@@ -2712,7 +2800,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
@@ -2730,7 +2818,7 @@
         <v>1.9999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>42</v>
       </c>
@@ -2748,7 +2836,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>41</v>
       </c>
@@ -2766,7 +2854,7 @@
         <v>-3.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -2784,7 +2872,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -2802,7 +2890,7 @@
         <v>-2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
@@ -2820,7 +2908,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
@@ -2838,7 +2926,7 @@
         <v>-9.9999999999999985E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>94</v>
       </c>
@@ -2856,7 +2944,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>83</v>
       </c>
@@ -2874,7 +2962,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>96</v>
       </c>
@@ -2892,7 +2980,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>84</v>
       </c>
@@ -2910,7 +2998,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>103</v>
       </c>
@@ -2928,7 +3016,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>95</v>
       </c>
@@ -2946,7 +3034,7 @@
         <v>-3.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>98</v>
       </c>
@@ -2964,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>88</v>
       </c>
@@ -2982,7 +3070,7 @@
         <v>-1.9999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>87</v>
       </c>
@@ -3000,7 +3088,7 @@
         <v>1.0000000000000002E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L52" s="9"/>
     </row>
   </sheetData>
